--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9954069904627278</v>
+        <v>0.9247055945318959</v>
       </c>
       <c r="E2">
-        <v>0.9954069904627278</v>
+        <v>0.9247055945318959</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999572535</v>
+        <v>0.9999650201456074</v>
       </c>
       <c r="E3">
-        <v>0.9999999999572535</v>
+        <v>0.9999650201456074</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003377612033069336</v>
+        <v>0.004155324731252437</v>
       </c>
       <c r="E4">
-        <v>0.003377612033069336</v>
+        <v>0.004155324731252437</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>8.83420630512225E-21</v>
+        <v>1.071617584048023E-32</v>
       </c>
       <c r="E5">
-        <v>8.83420630512225E-21</v>
+        <v>1.071617584048023E-32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8907405155405297</v>
+        <v>0.9067412681750768</v>
       </c>
       <c r="E6">
-        <v>0.8907405155405297</v>
+        <v>0.9067412681750768</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -514,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1.110223024625157E-15</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5.246061325073242</v>
+        <v>2.53727126121521</v>
       </c>
       <c r="G7">
         <v>0.5</v>
